--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.03657</v>
       </c>
       <c r="O2">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P2">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q2">
-        <v>0.02685077078333333</v>
+        <v>0.002170238523333333</v>
       </c>
       <c r="R2">
-        <v>0.24165693705</v>
+        <v>0.01953214671</v>
       </c>
       <c r="S2">
-        <v>2.056399249165695E-05</v>
+        <v>1.051235592747096E-06</v>
       </c>
       <c r="T2">
-        <v>2.056399249165695E-05</v>
+        <v>1.051235592747096E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N3">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O3">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P3">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q3">
-        <v>105.401775580875</v>
+        <v>5.852172742856888</v>
       </c>
       <c r="R3">
-        <v>948.6159802278751</v>
+        <v>52.669554685712</v>
       </c>
       <c r="S3">
-        <v>0.08072324400451897</v>
+        <v>0.002834717113373558</v>
       </c>
       <c r="T3">
-        <v>0.08072324400451894</v>
+        <v>0.002834717113373558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H4">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N4">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O4">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P4">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q4">
-        <v>148.6981552064194</v>
+        <v>1.68027201491</v>
       </c>
       <c r="R4">
-        <v>1338.283396857775</v>
+        <v>15.12244813419</v>
       </c>
       <c r="S4">
-        <v>0.1138823079554234</v>
+        <v>0.0008139021257706108</v>
       </c>
       <c r="T4">
-        <v>0.1138823079554233</v>
+        <v>0.0008139021257706106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>14.500353</v>
       </c>
       <c r="I5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.03657</v>
       </c>
       <c r="O5">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P5">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q5">
         <v>0.05891976769</v>
@@ -762,10 +762,10 @@
         <v>0.53027790921</v>
       </c>
       <c r="S5">
-        <v>4.512442753186832E-05</v>
+        <v>2.853997671047932E-05</v>
       </c>
       <c r="T5">
-        <v>4.512442753186832E-05</v>
+        <v>2.853997671047931E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>14.500353</v>
       </c>
       <c r="I6">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J6">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N6">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O6">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P6">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q6">
-        <v>231.287518017675</v>
+        <v>158.8805353806347</v>
       </c>
       <c r="R6">
-        <v>2081.587662159076</v>
+        <v>1429.924818425712</v>
       </c>
       <c r="S6">
-        <v>0.1771343855380749</v>
+        <v>0.07695968530238104</v>
       </c>
       <c r="T6">
-        <v>0.1771343855380748</v>
+        <v>0.07695968530238104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.500353</v>
       </c>
       <c r="I7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N7">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O7">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P7">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q7">
-        <v>326.2945720028284</v>
+        <v>45.61767552741</v>
       </c>
       <c r="R7">
-        <v>2936.651148025455</v>
+        <v>410.55907974669</v>
       </c>
       <c r="S7">
-        <v>0.2498967043769011</v>
+        <v>0.02209661456895815</v>
       </c>
       <c r="T7">
-        <v>0.2498967043769011</v>
+        <v>0.02209661456895815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H8">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I8">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J8">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.03657</v>
       </c>
       <c r="O8">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P8">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q8">
-        <v>0.01257715033666667</v>
+        <v>0.4343568837</v>
       </c>
       <c r="R8">
-        <v>0.11319435303</v>
+        <v>3.9092119533</v>
       </c>
       <c r="S8">
-        <v>9.63236501390096E-06</v>
+        <v>0.0002103968808916119</v>
       </c>
       <c r="T8">
-        <v>9.632365013900958E-06</v>
+        <v>0.0002103968808916119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H9">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I9">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J9">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N9">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O9">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P9">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q9">
-        <v>49.37117030752501</v>
+        <v>1171.26826758064</v>
       </c>
       <c r="R9">
-        <v>444.340532767725</v>
+        <v>10541.41440822576</v>
       </c>
       <c r="S9">
-        <v>0.03781151698402838</v>
+        <v>0.5673472654263093</v>
       </c>
       <c r="T9">
-        <v>0.03781151698402836</v>
+        <v>0.5673472654263094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H10">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I10">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J10">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N10">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O10">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P10">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q10">
-        <v>69.6515965186739</v>
+        <v>336.2937798393</v>
       </c>
       <c r="R10">
-        <v>626.8643686680649</v>
+        <v>3026.6440185537</v>
       </c>
       <c r="S10">
-        <v>0.0533435304110893</v>
+        <v>0.1628963762211446</v>
       </c>
       <c r="T10">
-        <v>0.05334353041108929</v>
+        <v>0.1628963762211446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H11">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I11">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J11">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.03657</v>
       </c>
       <c r="O11">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P11">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q11">
-        <v>0.005143956516666667</v>
+        <v>0.006731252986666667</v>
       </c>
       <c r="R11">
-        <v>0.04629560865</v>
+        <v>0.06058127688</v>
       </c>
       <c r="S11">
-        <v>3.93956225836923E-06</v>
+        <v>3.260532262831992E-06</v>
       </c>
       <c r="T11">
-        <v>3.93956225836923E-06</v>
+        <v>3.260532262831992E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H12">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I12">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J12">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N12">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O12">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P12">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q12">
-        <v>20.192424073875</v>
+        <v>18.15121003074844</v>
       </c>
       <c r="R12">
-        <v>181.731816664875</v>
+        <v>163.360890276736</v>
       </c>
       <c r="S12">
-        <v>0.01546461590969531</v>
+        <v>0.008792212390757632</v>
       </c>
       <c r="T12">
-        <v>0.01546461590969531</v>
+        <v>0.008792212390757632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H13">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I13">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J13">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N13">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O13">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P13">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q13">
-        <v>28.48696041773056</v>
+        <v>5.211563566480001</v>
       </c>
       <c r="R13">
-        <v>256.382643759575</v>
+        <v>46.90407209832</v>
       </c>
       <c r="S13">
-        <v>0.02181708841311767</v>
+        <v>0.00252441427799054</v>
       </c>
       <c r="T13">
-        <v>0.02181708841311767</v>
+        <v>0.00252441427799054</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H14">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I14">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J14">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.03657</v>
       </c>
       <c r="O14">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P14">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q14">
-        <v>0.03446913476666667</v>
+        <v>0.09246143849666667</v>
       </c>
       <c r="R14">
-        <v>0.3102222129</v>
+        <v>0.83215294647</v>
       </c>
       <c r="S14">
-        <v>2.639861009038972E-05</v>
+        <v>4.478713010540525E-05</v>
       </c>
       <c r="T14">
-        <v>2.639861009038972E-05</v>
+        <v>4.478713010540524E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H15">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I15">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J15">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N15">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O15">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P15">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q15">
-        <v>135.30740091075</v>
+        <v>249.3275758944871</v>
       </c>
       <c r="R15">
-        <v>1217.76660819675</v>
+        <v>2243.948183050384</v>
       </c>
       <c r="S15">
-        <v>0.1036268343596823</v>
+        <v>0.1207710669659792</v>
       </c>
       <c r="T15">
-        <v>0.1036268343596823</v>
+        <v>0.1207710669659792</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H16">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I16">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J16">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N16">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O16">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P16">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q16">
-        <v>190.8882539247722</v>
+        <v>71.58677071387001</v>
       </c>
       <c r="R16">
-        <v>1717.99428532295</v>
+        <v>644.28093642483</v>
       </c>
       <c r="S16">
-        <v>0.1461941130900827</v>
+        <v>0.03467570985177237</v>
       </c>
       <c r="T16">
-        <v>0.1461941130900827</v>
+        <v>0.03467570985177237</v>
       </c>
     </row>
   </sheetData>
